--- a/docs/Sideboard comparison.xlsx
+++ b/docs/Sideboard comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarioOliveri\Documents\Visual Studio 2022\ProjectsVersioned\MTG\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D722D4-B358-4CE0-907E-7BD7F136E89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB08F22-D194-4B87-BFCE-4445FBB75C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -447,10 +447,70 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Removed</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> cards</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -495,6 +555,8 @@
         <c:axId val="1647216576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5.6"/>
+          <c:min val="4.8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -512,6 +574,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>AWT (higher is worse)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -546,6 +663,8 @@
         <c:crossAx val="1645143984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+        <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1492,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
